--- a/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2026/Tháng 02/01. Báo giá bảo hành/BG_DLQuangGiap_050226.xlsx
+++ b/4. Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2026/Tháng 02/01. Báo giá bảo hành/BG_DLQuangGiap_050226.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4. Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2026\Tháng 02\01. Báo giá bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A2058-C1AC-43C2-8611-6C621005903D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387B31EF-C4F8-4D55-9FFC-3C1B29CF4758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Tên cty/ cá nhân: Đại lý Quang Giáp</t>
+  </si>
+  <si>
+    <t>Báo giá khách không sửa</t>
   </si>
 </sst>
 </file>
@@ -479,6 +482,39 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,39 +570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -955,82 +958,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="35" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="41" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="15"/>
@@ -1041,11 +1044,11 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1055,11 +1058,11 @@
       <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
@@ -1072,11 +1075,11 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1154,17 +1157,17 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="7">
         <f>SUM(J11:J11)</f>
         <v>1300000</v>
@@ -1172,11 +1175,13 @@
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="A13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -1198,37 +1203,37 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,20 +1304,20 @@
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,12 +1394,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
@@ -1402,11 +1406,12 @@
     <mergeCell ref="F15:J15"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
